--- a/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 4,3</t>
+          <t>-7,09; 4,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,25; 51,95</t>
+          <t>37,81; 52,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 15,45</t>
+          <t>-1,53; 15,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,56; 45,14</t>
+          <t>29,82; 44,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 8,92</t>
+          <t>-2,5; 8,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,31; 47,61</t>
+          <t>36,28; 47,41</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 42,93</t>
+          <t>-41,9; 42,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>218,6; 505,05</t>
+          <t>212,26; 506,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 30,58</t>
+          <t>-2,59; 31,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,43; 94,13</t>
+          <t>49,65; 91,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 28,01</t>
+          <t>-6,9; 29,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,74; 159,86</t>
+          <t>96,51; 160,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,61</t>
+          <t>-4,03; 3,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,03</t>
+          <t>-2,37; 5,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,4; 68,99</t>
+          <t>58,19; 69,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 12,69</t>
+          <t>-0,4; 13,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 8,1</t>
+          <t>-4,31; 7,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,2; 41,8</t>
+          <t>31,36; 42,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,47</t>
+          <t>-1,66; 7,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 6,09</t>
+          <t>-2,35; 6,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,41; 54,22</t>
+          <t>45,96; 54,48</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 51,37</t>
+          <t>-37,71; 49,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 66,95</t>
+          <t>-22,83; 75,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>511,36; 988,42</t>
+          <t>505,11; 1040,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 25,18</t>
+          <t>-0,9; 25,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 15,76</t>
+          <t>-7,34; 15,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,47; 83,0</t>
+          <t>53,54; 82,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 24,43</t>
+          <t>-5,07; 24,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 20,03</t>
+          <t>-6,86; 20,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>134,3; 185,72</t>
+          <t>132,55; 185,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,42</t>
+          <t>-4,63; 3,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 7,44</t>
+          <t>-1,42; 7,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,55; 74,42</t>
+          <t>63,42; 74,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 5,67</t>
+          <t>-8,9; 6,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 6,94</t>
+          <t>-7,94; 7,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,52; 37,83</t>
+          <t>25,95; 37,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,48</t>
+          <t>-5,75; 4,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 6,81</t>
+          <t>-3,58; 6,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,83; 55,0</t>
+          <t>46,0; 54,75</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 68,15</t>
+          <t>-49,84; 76,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 159,17</t>
+          <t>-16,61; 153,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>565,19; 1549,97</t>
+          <t>604,14; 1644,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 10,68</t>
+          <t>-14,67; 12,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 12,73</t>
+          <t>-12,98; 13,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,83; 72,75</t>
+          <t>41,83; 73,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 15,09</t>
+          <t>-16,5; 13,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 22,76</t>
+          <t>-10,16; 22,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>127,0; 189,08</t>
+          <t>128,93; 185,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,13</t>
+          <t>1,17; 7,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,52</t>
+          <t>6,52; 16,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,72; 66,39</t>
+          <t>52,05; 65,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,92; 21,58</t>
+          <t>8,8; 21,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 25,45</t>
+          <t>9,99; 23,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,46; 48,27</t>
+          <t>35,16; 47,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,58</t>
+          <t>5,34; 13,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,81; 18,89</t>
+          <t>9,91; 19,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47,06; 56,68</t>
+          <t>46,81; 56,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,84; 179,42</t>
+          <t>12,06; 181,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>76,43; 366,76</t>
+          <t>80,86; 363,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>599,36; 1552,86</t>
+          <t>606,17; 1534,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,86; 50,98</t>
+          <t>17,16; 51,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,51; 59,58</t>
+          <t>19,89; 56,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>69,63; 116,29</t>
+          <t>69,24; 113,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,16; 56,69</t>
+          <t>18,76; 56,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,73; 81,44</t>
+          <t>33,71; 81,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>161,09; 234,92</t>
+          <t>159,19; 235,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 0,25</t>
+          <t>-11,35; 0,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 11,8</t>
+          <t>-2,42; 10,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,54; 81,98</t>
+          <t>69,52; 82,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 11,47</t>
+          <t>-8,05; 11,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 14,67</t>
+          <t>-3,98; 15,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,37; 49,18</t>
+          <t>34,23; 48,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 4,68</t>
+          <t>-8,8; 4,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 11,59</t>
+          <t>-1,63; 11,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>54,14; 64,34</t>
+          <t>54,06; 64,39</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 4,67</t>
+          <t>-74,26; 4,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 153,16</t>
+          <t>-18,96; 123,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>438,97; 1127,32</t>
+          <t>441,96; 1090,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 23,94</t>
+          <t>-13,98; 23,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 30,96</t>
+          <t>-6,71; 32,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>57,92; 106,6</t>
+          <t>57,72; 106,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 16,53</t>
+          <t>-24,26; 14,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 41,39</t>
+          <t>-4,83; 39,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>148,88; 225,61</t>
+          <t>147,39; 227,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,15</t>
+          <t>-2,69; 4,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,02</t>
+          <t>1,32; 10,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>66,51; 76,84</t>
+          <t>66,11; 77,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 4,28</t>
+          <t>-12,26; 3,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 15,74</t>
+          <t>-0,36; 15,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>29,47; 43,23</t>
+          <t>30,45; 42,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,69</t>
+          <t>-7,24; 3,95</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,23</t>
+          <t>1,3; 12,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>49,38; 58,99</t>
+          <t>48,92; 59,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 147,74</t>
+          <t>-47,31; 151,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,16; 367,44</t>
+          <t>12,03; 362,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>908,23; 2980,37</t>
+          <t>916,0; 2710,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 8,45</t>
+          <t>-20,99; 7,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 30,96</t>
+          <t>-0,48; 30,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>48,37; 87,74</t>
+          <t>50,75; 86,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 13,14</t>
+          <t>-22,11; 13,6</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,34; 47,59</t>
+          <t>3,85; 45,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>146,64; 219,62</t>
+          <t>142,85; 221,85</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,96</t>
+          <t>-4,26; 3,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,11; 12,64</t>
+          <t>4,54; 12,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>56,7; 67,0</t>
+          <t>57,42; 67,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -1,27</t>
+          <t>-12,65; -1,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -0,54</t>
+          <t>-11,32; -0,12</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>25,85; 36,96</t>
+          <t>25,93; 36,99</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -0,29</t>
+          <t>-8,02; -0,37</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,25</t>
+          <t>-2,46; 5,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>42,9; 52,04</t>
+          <t>43,0; 51,64</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 32,24</t>
+          <t>-35,78; 36,75</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>31,51; 144,44</t>
+          <t>35,27; 141,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>445,45; 800,76</t>
+          <t>442,26; 795,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -2,31</t>
+          <t>-21,0; -2,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -0,81</t>
+          <t>-18,38; -0,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>41,2; 67,57</t>
+          <t>42,02; 66,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,53; -0,83</t>
+          <t>-21,48; -1,16</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 15,89</t>
+          <t>-6,69; 15,74</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>114,25; 156,06</t>
+          <t>115,69; 157,72</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,59</t>
+          <t>1,51; 7,77</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,27</t>
+          <t>5,53; 11,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>26,03; 38,85</t>
+          <t>26,34; 38,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 3,49</t>
+          <t>-6,13; 4,22</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -0,93</t>
+          <t>-11,06; -0,75</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>35,71; 44,21</t>
+          <t>35,66; 44,15</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,18</t>
+          <t>-1,82; 5,11</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,64</t>
+          <t>-2,02; 4,75</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>29,99; 40,66</t>
+          <t>29,42; 40,42</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>20,38; 145,34</t>
+          <t>20,5; 146,36</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>65,26; 209,69</t>
+          <t>67,38; 211,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>348,03; 747,15</t>
+          <t>348,06; 729,62</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 7,02</t>
+          <t>-11,15; 8,6</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -1,77</t>
+          <t>-20,45; -1,37</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>64,56; 90,2</t>
+          <t>64,59; 89,37</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 18,6</t>
+          <t>-5,68; 18,59</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 16,46</t>
+          <t>-6,47; 16,32</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>98,35; 144,96</t>
+          <t>98,09; 144,28</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,29</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,48</t>
+          <t>4,08; 7,43</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>52,59; 58,29</t>
+          <t>52,26; 58,21</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,24</t>
+          <t>-1,57; 3,2</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,63</t>
+          <t>-0,96; 3,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>34,46; 38,6</t>
+          <t>34,66; 38,87</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,58</t>
+          <t>-0,6; 2,56</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,3</t>
+          <t>1,94; 5,22</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>44,53; 48,69</t>
+          <t>44,43; 48,62</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 29,33</t>
+          <t>-6,54; 28,27</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>44,51; 97,28</t>
+          <t>43,45; 93,54</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>573,57; 763,18</t>
+          <t>574,14; 770,35</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 6,06</t>
+          <t>-2,86; 5,95</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,89</t>
+          <t>-1,73; 6,85</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>61,99; 73,69</t>
+          <t>62,27; 73,38</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,28</t>
+          <t>-1,85; 8,4</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,06</t>
+          <t>6,0; 16,97</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>136,91; 158,94</t>
+          <t>137,87; 158,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 4,51</t>
+          <t>-6,99; 4,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,81; 52,95</t>
+          <t>37,46; 52,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 15,75</t>
+          <t>-1,69; 15,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,82; 44,35</t>
+          <t>29,84; 44,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 8,93</t>
+          <t>-3,04; 8,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,28; 47,41</t>
+          <t>35,7; 46,89</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 42,03</t>
+          <t>-43,19; 44,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>212,26; 506,71</t>
+          <t>202,05; 499,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 31,72</t>
+          <t>-2,26; 30,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,65; 91,1</t>
+          <t>48,31; 90,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 29,03</t>
+          <t>-7,92; 28,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,51; 160,51</t>
+          <t>94,72; 154,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,72</t>
+          <t>-4,56; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 5,3</t>
+          <t>-3,18; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,19; 69,97</t>
+          <t>58,03; 69,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 13,02</t>
+          <t>0,3; 12,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,93</t>
+          <t>-4,16; 8,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,36; 42,02</t>
+          <t>31,76; 42,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,48</t>
+          <t>-1,11; 7,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 6,26</t>
+          <t>-2,27; 6,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,96; 54,48</t>
+          <t>46,08; 54,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 49,33</t>
+          <t>-41,27; 46,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 75,99</t>
+          <t>-28,37; 69,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>505,11; 1040,09</t>
+          <t>506,68; 1031,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 25,19</t>
+          <t>0,5; 23,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 15,41</t>
+          <t>-7,13; 16,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,54; 82,86</t>
+          <t>53,46; 82,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 24,73</t>
+          <t>-3,09; 25,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 20,94</t>
+          <t>-6,67; 21,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>132,55; 185,58</t>
+          <t>133,08; 182,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,85</t>
+          <t>-4,85; 3,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 7,46</t>
+          <t>-1,68; 7,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,42; 74,12</t>
+          <t>62,09; 74,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 6,43</t>
+          <t>-8,76; 6,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 7,03</t>
+          <t>-7,44; 7,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,95; 37,91</t>
+          <t>26,52; 37,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 4,08</t>
+          <t>-6,31; 4,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 6,65</t>
+          <t>-4,28; 6,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,0; 54,75</t>
+          <t>45,55; 54,92</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 76,82</t>
+          <t>-48,26; 75,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 153,08</t>
+          <t>-18,74; 151,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>604,14; 1644,99</t>
+          <t>548,74; 1544,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 12,62</t>
+          <t>-14,49; 12,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 13,39</t>
+          <t>-12,26; 14,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,83; 73,07</t>
+          <t>42,75; 71,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 13,5</t>
+          <t>-18,13; 14,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 22,37</t>
+          <t>-12,15; 21,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>128,93; 185,68</t>
+          <t>127,09; 188,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,92</t>
+          <t>0,84; 8,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 16,37</t>
+          <t>6,43; 16,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,05; 65,96</t>
+          <t>51,07; 66,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,8; 21,88</t>
+          <t>8,38; 21,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,99; 23,96</t>
+          <t>9,95; 24,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,16; 47,82</t>
+          <t>35,22; 47,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 13,79</t>
+          <t>5,39; 13,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,9</t>
+          <t>9,53; 19,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,81; 56,79</t>
+          <t>46,5; 56,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,06; 181,8</t>
+          <t>7,42; 198,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>80,86; 363,73</t>
+          <t>76,66; 367,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>606,17; 1534,98</t>
+          <t>605,62; 1620,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,16; 51,09</t>
+          <t>16,63; 50,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,89; 56,41</t>
+          <t>19,48; 56,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>69,24; 113,28</t>
+          <t>70,06; 113,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,76; 56,78</t>
+          <t>18,44; 56,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,71; 81,76</t>
+          <t>32,76; 77,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>159,19; 235,26</t>
+          <t>155,61; 233,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 0,04</t>
+          <t>-10,62; -0,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,88</t>
+          <t>-1,85; 11,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,52; 82,2</t>
+          <t>70,19; 82,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 11,23</t>
+          <t>-8,7; 10,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 15,47</t>
+          <t>-5,09; 15,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,23; 48,97</t>
+          <t>33,74; 49,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 4,02</t>
+          <t>-8,52; 4,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 11,47</t>
+          <t>-1,42; 11,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>54,06; 64,39</t>
+          <t>53,75; 64,75</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,26; 4,19</t>
+          <t>-74,24; -0,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 123,71</t>
+          <t>-14,03; 137,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>441,96; 1090,06</t>
+          <t>422,24; 1087,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 23,62</t>
+          <t>-14,94; 22,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 32,31</t>
+          <t>-8,99; 33,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>57,72; 106,1</t>
+          <t>57,31; 105,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 14,28</t>
+          <t>-24,23; 15,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 39,23</t>
+          <t>-4,6; 41,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>147,39; 227,49</t>
+          <t>145,36; 230,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,46</t>
+          <t>-3,24; 4,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,9</t>
+          <t>1,54; 10,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>66,11; 77,22</t>
+          <t>66,3; 76,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,9</t>
+          <t>-12,26; 5,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 15,19</t>
+          <t>-0,3; 16,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>30,45; 42,78</t>
+          <t>30,46; 43,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 3,95</t>
+          <t>-7,17; 3,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,3; 12,63</t>
+          <t>1,14; 13,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>48,92; 59,09</t>
+          <t>49,15; 58,63</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 151,45</t>
+          <t>-54,2; 135,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,03; 362,22</t>
+          <t>17,73; 349,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>916,0; 2710,13</t>
+          <t>894,14; 2916,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 7,83</t>
+          <t>-20,56; 11,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 30,8</t>
+          <t>-0,63; 33,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>50,75; 86,59</t>
+          <t>50,7; 88,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 13,6</t>
+          <t>-22,33; 12,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,85; 45,87</t>
+          <t>3,61; 48,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>142,85; 221,85</t>
+          <t>145,59; 217,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,0</t>
+          <t>-4,19; 3,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,42</t>
+          <t>4,4; 12,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>57,42; 67,05</t>
+          <t>57,38; 67,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,65; -1,19</t>
+          <t>-12,93; -1,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -0,12</t>
+          <t>-11,99; -1,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>25,93; 36,99</t>
+          <t>25,83; 36,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,02; -0,37</t>
+          <t>-7,62; -0,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,18</t>
+          <t>-2,57; 5,23</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>43,0; 51,64</t>
+          <t>42,93; 51,79</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 36,75</t>
+          <t>-33,57; 37,43</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>35,27; 141,37</t>
+          <t>35,14; 146,53</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>442,26; 795,09</t>
+          <t>449,36; 821,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -2,23</t>
+          <t>-21,48; -3,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -0,2</t>
+          <t>-19,69; -1,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>42,02; 66,53</t>
+          <t>42,04; 64,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,48; -1,16</t>
+          <t>-21,11; -0,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 15,74</t>
+          <t>-7,05; 15,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>115,69; 157,72</t>
+          <t>115,67; 158,85</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,77</t>
+          <t>2,04; 7,92</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,34</t>
+          <t>5,16; 11,62</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>26,34; 38,65</t>
+          <t>26,87; 39,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,22</t>
+          <t>-6,58; 3,69</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -0,75</t>
+          <t>-10,65; -0,37</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>35,66; 44,15</t>
+          <t>35,7; 44,38</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 5,11</t>
+          <t>-1,95; 4,91</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,75</t>
+          <t>-2,19; 4,49</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>29,42; 40,42</t>
+          <t>29,98; 40,87</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>20,5; 146,36</t>
+          <t>25,36; 148,1</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>67,38; 211,0</t>
+          <t>66,99; 230,9</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>348,06; 729,62</t>
+          <t>366,67; 778,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 8,6</t>
+          <t>-11,77; 7,43</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-20,45; -1,37</t>
+          <t>-19,31; -0,73</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>64,59; 89,37</t>
+          <t>64,24; 90,69</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 18,59</t>
+          <t>-6,21; 17,02</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 16,32</t>
+          <t>-6,88; 15,73</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>98,09; 144,28</t>
+          <t>97,47; 143,42</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,67; 2,4</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,43</t>
+          <t>4,33; 7,56</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>52,26; 58,21</t>
+          <t>52,2; 58,22</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,2</t>
+          <t>-1,47; 3,42</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,63</t>
+          <t>-1,24; 3,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>34,66; 38,87</t>
+          <t>34,73; 39,12</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,56</t>
+          <t>-0,61; 2,57</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,22</t>
+          <t>1,99; 5,44</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>44,43; 48,62</t>
+          <t>44,48; 48,74</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 28,27</t>
+          <t>-7,43; 30,68</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>43,45; 93,54</t>
+          <t>46,45; 97,77</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>574,14; 770,35</t>
+          <t>572,2; 765,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,95</t>
+          <t>-2,66; 6,54</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 6,85</t>
+          <t>-2,21; 6,87</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>62,27; 73,38</t>
+          <t>62,45; 74,55</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 8,4</t>
+          <t>-1,95; 8,38</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,0; 16,97</t>
+          <t>6,08; 17,55</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>137,87; 158,29</t>
+          <t>137,77; 159,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>45,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,93</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,46; 52,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 15,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 44,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,7; 46,89</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>329,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>124,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 44,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>202,05; 499,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 30,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,31; 90,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 28,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,72; 154,69</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,35</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 3,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 4,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,03; 69,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 12,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 8,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,76; 42,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,08; 54,27</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>706,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>156,79%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 46,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 69,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>506,68; 1031,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 23,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 16,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,46; 82,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 25,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 21,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>133,08; 182,15</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>69,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50,48</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 3,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,09; 74,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 6,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,52; 37,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,55; 54,92</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>942,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>154,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 75,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 151,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>548,74; 1544,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 14,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,75; 71,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 14,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 21,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>127,09; 188,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>59,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>41,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,76</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 16,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,07; 66,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,38; 21,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 24,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,22; 47,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 13,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 19,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,5; 56,69</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>181,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>956,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>193,68%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 198,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>76,66; 367,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>605,62; 1620,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,63; 50,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,48; 56,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,06; 113,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,44; 56,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,76; 77,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>155,61; 233,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>76,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>41,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>59,29</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 11,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>70,19; 82,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 10,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 15,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,74; 49,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 4,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 11,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>53,75; 64,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-45,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>673,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>78,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-6,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>182,71%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,24; -0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 137,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>422,24; 1087,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 22,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 33,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>57,31; 105,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 15,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 41,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>145,36; 230,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>72,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>36,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>54,21</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>66,3; 76,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 5,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 16,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>30,46; 43,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>49,15; 58,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>127,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1535,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>180,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 135,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,73; 349,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>894,14; 2916,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 33,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>50,7; 88,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 12,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,61; 48,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>145,59; 217,35</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>62,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>46,97</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 3,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,4; 12,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>57,38; 67,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>25,83; 36,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -0,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>42,93; 51,79</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>591,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-10,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>134,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 37,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>35,14; 146,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>449,36; 821,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,48; -3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>42,04; 64,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 15,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>115,67; 158,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>34,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>40,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>36,67</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>26,87; 39,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,65; -0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>35,7; 44,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>29,98; 40,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>127,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>524,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>122,01%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>25,36; 148,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>66,99; 230,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>366,67; 778,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -0,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>64,24; 90,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 17,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>97,47; 143,42</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>56,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>36,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>46,85</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>52,2; 58,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>34,73; 39,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>44,48; 48,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>663,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>67,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>148,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 30,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>46,45; 97,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>572,2; 765,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>62,45; 74,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,08; 17,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>137,77; 159,11</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">

--- a/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
